--- a/DATA_goal/Junction_Flooding_444.xlsx
+++ b/DATA_goal/Junction_Flooding_444.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45125.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45125.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>16.094</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>11.262</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.015</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>11.068</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>39.373</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>17.483</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>7.667</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>12.984</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.735</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>10.887</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>16.511</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>9.534000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.718</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.298</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>169.635</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>32.347</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>11.195</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>22.155</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>11.889</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.519</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>19.551</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>7.783</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>9.933999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>34.298</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>5.828</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45125.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>2.549</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>1.444</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>9.874000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>0.827</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>0.398</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>0.834</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>1.264</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>4.034</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>2.647</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>2.214</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>1.145</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>4.103</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>0.599</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>0.737</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>1.038</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>8.864000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45125.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_444.xlsx
+++ b/DATA_goal/Junction_Flooding_444.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45125.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45125.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.094</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.262</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.015</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.068</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.373</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.483</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.667</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.54</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.984</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.91</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.735</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.887</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.511</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.534000000000001</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.718</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>169.635</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.347</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.195</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.155</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.889</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.519</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.551</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.467000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.783</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.933999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.298</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.828</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45125.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.549</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.444</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.874000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.827</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.403</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.398</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.834</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.588</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.282</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.264</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.034</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.647</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.214</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.145</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.103</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.599</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.038</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.864000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45125.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R5" s="4" t="n">
+      <c r="W6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.7</v>
+      <c r="AG6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
